--- a/Code/Results/Cases/Case_4_231/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_231/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.010481254367426</v>
+        <v>1.046010529502491</v>
       </c>
       <c r="D2">
-        <v>1.028533870028353</v>
+        <v>1.050006871171725</v>
       </c>
       <c r="E2">
-        <v>1.02803883874824</v>
+        <v>1.058698708362374</v>
       </c>
       <c r="F2">
-        <v>1.034451115555759</v>
+        <v>1.064156674700211</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046380209619781</v>
+        <v>1.037106215224382</v>
       </c>
       <c r="J2">
-        <v>1.032352929296693</v>
+        <v>1.051067206422133</v>
       </c>
       <c r="K2">
-        <v>1.039609495727075</v>
+        <v>1.052762347095428</v>
       </c>
       <c r="L2">
-        <v>1.039120894003055</v>
+        <v>1.061430230530892</v>
       </c>
       <c r="M2">
-        <v>1.045450482458005</v>
+        <v>1.066873371794892</v>
       </c>
       <c r="N2">
-        <v>1.033818988868839</v>
+        <v>1.052559842414346</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.015484245736305</v>
+        <v>1.047077892408904</v>
       </c>
       <c r="D3">
-        <v>1.032229359835403</v>
+        <v>1.050812797914315</v>
       </c>
       <c r="E3">
-        <v>1.032551599296078</v>
+        <v>1.059716652479945</v>
       </c>
       <c r="F3">
-        <v>1.038958513629197</v>
+        <v>1.065171196435683</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047483157458114</v>
+        <v>1.03727462464952</v>
       </c>
       <c r="J3">
-        <v>1.035561514035072</v>
+        <v>1.051781882566756</v>
       </c>
       <c r="K3">
-        <v>1.042465821189569</v>
+        <v>1.053380650500119</v>
       </c>
       <c r="L3">
-        <v>1.042784251942627</v>
+        <v>1.062261742371102</v>
       </c>
       <c r="M3">
-        <v>1.049116046299034</v>
+        <v>1.067702544301359</v>
       </c>
       <c r="N3">
-        <v>1.037032130165568</v>
+        <v>1.05327553348107</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.018653609664272</v>
+        <v>1.047768975451466</v>
       </c>
       <c r="D4">
-        <v>1.034572613839832</v>
+        <v>1.051334436940152</v>
       </c>
       <c r="E4">
-        <v>1.03541601440067</v>
+        <v>1.060376074711297</v>
       </c>
       <c r="F4">
-        <v>1.041819282845728</v>
+        <v>1.06582833956648</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048170941910035</v>
+        <v>1.037382278197022</v>
       </c>
       <c r="J4">
-        <v>1.037591897843835</v>
+        <v>1.052244169760625</v>
       </c>
       <c r="K4">
-        <v>1.044270942867584</v>
+        <v>1.053780231084122</v>
       </c>
       <c r="L4">
-        <v>1.045104993767594</v>
+        <v>1.062799918534404</v>
       </c>
       <c r="M4">
-        <v>1.051437883878767</v>
+        <v>1.068239140285755</v>
       </c>
       <c r="N4">
-        <v>1.039065397352227</v>
+        <v>1.053738477175778</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.019970379726979</v>
+        <v>1.048059609014307</v>
       </c>
       <c r="D5">
-        <v>1.035546619976906</v>
+        <v>1.051553769133651</v>
       </c>
       <c r="E5">
-        <v>1.036607388581908</v>
+        <v>1.060653473327515</v>
       </c>
       <c r="F5">
-        <v>1.043009076385651</v>
+        <v>1.06610476451776</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048454028255436</v>
+        <v>1.037427219709483</v>
       </c>
       <c r="J5">
-        <v>1.038434881975195</v>
+        <v>1.05243847743527</v>
       </c>
       <c r="K5">
-        <v>1.04501981950746</v>
+        <v>1.053948093702892</v>
       </c>
       <c r="L5">
-        <v>1.046069150592793</v>
+        <v>1.063026198900481</v>
       </c>
       <c r="M5">
-        <v>1.052402417952691</v>
+        <v>1.068464740367983</v>
       </c>
       <c r="N5">
-        <v>1.039909578617745</v>
+        <v>1.053933060789609</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.020190572220908</v>
+        <v>1.048108413659314</v>
       </c>
       <c r="D6">
-        <v>1.035709520007331</v>
+        <v>1.0515905980092</v>
       </c>
       <c r="E6">
-        <v>1.036806687350792</v>
+        <v>1.060700060165327</v>
       </c>
       <c r="F6">
-        <v>1.043208106787789</v>
+        <v>1.066151186960212</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048501208410642</v>
+        <v>1.037434747044046</v>
       </c>
       <c r="J6">
-        <v>1.038575812211127</v>
+        <v>1.052471100314113</v>
       </c>
       <c r="K6">
-        <v>1.045144982111105</v>
+        <v>1.053976271458149</v>
       </c>
       <c r="L6">
-        <v>1.046230375038332</v>
+        <v>1.063064194176657</v>
       </c>
       <c r="M6">
-        <v>1.052563700737198</v>
+        <v>1.0685026204828</v>
       </c>
       <c r="N6">
-        <v>1.040050708990778</v>
+        <v>1.053965729996682</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.018671265022762</v>
+        <v>1.047772858509792</v>
       </c>
       <c r="D7">
-        <v>1.034585671665383</v>
+        <v>1.051337367530672</v>
       </c>
       <c r="E7">
-        <v>1.035431983360739</v>
+        <v>1.06037978062854</v>
       </c>
       <c r="F7">
-        <v>1.04183523088075</v>
+        <v>1.065832032534677</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048174748146187</v>
+        <v>1.037382879949977</v>
       </c>
       <c r="J7">
-        <v>1.037603202969043</v>
+        <v>1.052246766258679</v>
       </c>
       <c r="K7">
-        <v>1.044280988255545</v>
+        <v>1.053782474549111</v>
       </c>
       <c r="L7">
-        <v>1.045117921465689</v>
+        <v>1.062802941982239</v>
       </c>
       <c r="M7">
-        <v>1.05145081695048</v>
+        <v>1.06824215470646</v>
       </c>
       <c r="N7">
-        <v>1.03907671853201</v>
+        <v>1.053741077361157</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.012186487070981</v>
+        <v>1.0463711610907</v>
       </c>
       <c r="D8">
-        <v>1.029792951381661</v>
+        <v>1.050279206183547</v>
       </c>
       <c r="E8">
-        <v>1.029575774839642</v>
+        <v>1.0590425728165</v>
       </c>
       <c r="F8">
-        <v>1.035986272215479</v>
+        <v>1.064499395877375</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046758405708224</v>
+        <v>1.037163402788369</v>
       </c>
       <c r="J8">
-        <v>1.033446995831811</v>
+        <v>1.051308766583491</v>
       </c>
       <c r="K8">
-        <v>1.04058393182044</v>
+        <v>1.052971409413098</v>
       </c>
       <c r="L8">
-        <v>1.040369489191071</v>
+        <v>1.061711216080727</v>
       </c>
       <c r="M8">
-        <v>1.046699889294799</v>
+        <v>1.067153580482063</v>
       </c>
       <c r="N8">
-        <v>1.034914609103919</v>
+        <v>1.052801745618841</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.000209443443606</v>
+        <v>1.043904475858023</v>
       </c>
       <c r="D9">
-        <v>1.020961657051145</v>
+        <v>1.04841578271728</v>
       </c>
       <c r="E9">
-        <v>1.018806611496805</v>
+        <v>1.056691972271872</v>
       </c>
       <c r="F9">
-        <v>1.025228817340681</v>
+        <v>1.062156358608988</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044057522684704</v>
+        <v>1.036766572862163</v>
       </c>
       <c r="J9">
-        <v>1.025754807890071</v>
+        <v>1.049654717975492</v>
       </c>
       <c r="K9">
-        <v>1.033723560137263</v>
+        <v>1.051538383538415</v>
       </c>
       <c r="L9">
-        <v>1.031601759462488</v>
+        <v>1.059788495443386</v>
       </c>
       <c r="M9">
-        <v>1.037925418656191</v>
+        <v>1.065235907166782</v>
       </c>
       <c r="N9">
-        <v>1.027211497372995</v>
+        <v>1.051145348072096</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.991810030789812</v>
+        <v>1.042262235318244</v>
       </c>
       <c r="D10">
-        <v>1.014787068058791</v>
+        <v>1.047174353156404</v>
       </c>
       <c r="E10">
-        <v>1.011289468050775</v>
+        <v>1.055128796418796</v>
       </c>
       <c r="F10">
-        <v>1.017719193556833</v>
+        <v>1.060597898455817</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042108884004269</v>
+        <v>1.036495261067356</v>
       </c>
       <c r="J10">
-        <v>1.020352400796373</v>
+        <v>1.048551257943479</v>
       </c>
       <c r="K10">
-        <v>1.028894373234725</v>
+        <v>1.050580496480448</v>
       </c>
       <c r="L10">
-        <v>1.025457836117858</v>
+        <v>1.058507413962719</v>
       </c>
       <c r="M10">
-        <v>1.031775726454977</v>
+        <v>1.063957853911985</v>
       </c>
       <c r="N10">
-        <v>1.021801418241561</v>
+        <v>1.050040321000268</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9880636396763964</v>
+        <v>1.041551653499132</v>
       </c>
       <c r="D11">
-        <v>1.012038598385869</v>
+        <v>1.0466370130592</v>
       </c>
       <c r="E11">
-        <v>1.007945762122421</v>
+        <v>1.054452854403592</v>
       </c>
       <c r="F11">
-        <v>1.014378784770774</v>
+        <v>1.059923921831505</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041227505988862</v>
+        <v>1.036376181219839</v>
       </c>
       <c r="J11">
-        <v>1.017941556341368</v>
+        <v>1.04807327243659</v>
       </c>
       <c r="K11">
-        <v>1.026737000199632</v>
+        <v>1.050165126237377</v>
       </c>
       <c r="L11">
-        <v>1.022719372707212</v>
+        <v>1.05795287163773</v>
       </c>
       <c r="M11">
-        <v>1.02903453880211</v>
+        <v>1.063404543800614</v>
       </c>
       <c r="N11">
-        <v>1.019387150110901</v>
+        <v>1.049561656699134</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.986654607982635</v>
+        <v>1.041287789731161</v>
       </c>
       <c r="D12">
-        <v>1.011005830377504</v>
+        <v>1.046437452912384</v>
       </c>
       <c r="E12">
-        <v>1.006689633397417</v>
+        <v>1.054201918707939</v>
       </c>
       <c r="F12">
-        <v>1.013123897297405</v>
+        <v>1.059673704742557</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040894243114982</v>
+        <v>1.036331709569444</v>
       </c>
       <c r="J12">
-        <v>1.01703470807154</v>
+        <v>1.047895700652487</v>
       </c>
       <c r="K12">
-        <v>1.025925170553885</v>
+        <v>1.050010749773371</v>
       </c>
       <c r="L12">
-        <v>1.021689783102434</v>
+        <v>1.057746916576181</v>
       </c>
       <c r="M12">
-        <v>1.028003910559719</v>
+        <v>1.063199034631009</v>
       </c>
       <c r="N12">
-        <v>1.018479014012513</v>
+        <v>1.049383832742731</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9869576572187213</v>
+        <v>1.04134438587793</v>
       </c>
       <c r="D13">
-        <v>1.011227909978725</v>
+        <v>1.046480257785726</v>
       </c>
       <c r="E13">
-        <v>1.00695973001869</v>
+        <v>1.05425573895594</v>
       </c>
       <c r="F13">
-        <v>1.013393726739033</v>
+        <v>1.059727371362921</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040965999096197</v>
+        <v>1.036341259749359</v>
       </c>
       <c r="J13">
-        <v>1.017229754023409</v>
+        <v>1.047933791604641</v>
       </c>
       <c r="K13">
-        <v>1.026099794097307</v>
+        <v>1.050043868089134</v>
       </c>
       <c r="L13">
-        <v>1.021911206086643</v>
+        <v>1.057791093422916</v>
       </c>
       <c r="M13">
-        <v>1.028225557419989</v>
+        <v>1.063243116365644</v>
       </c>
       <c r="N13">
-        <v>1.018674336952006</v>
+        <v>1.049421977788406</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9879475309436339</v>
+        <v>1.041529840847652</v>
       </c>
       <c r="D14">
-        <v>1.011953475238776</v>
+        <v>1.046620516700167</v>
       </c>
       <c r="E14">
-        <v>1.007842223143572</v>
+        <v>1.054432109136682</v>
       </c>
       <c r="F14">
-        <v>1.014275347992871</v>
+        <v>1.059903236197541</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041200079715478</v>
+        <v>1.03637251007545</v>
       </c>
       <c r="J14">
-        <v>1.017866831223319</v>
+        <v>1.048058594839771</v>
       </c>
       <c r="K14">
-        <v>1.02667011117357</v>
+        <v>1.050152367252762</v>
       </c>
       <c r="L14">
-        <v>1.022634523556509</v>
+        <v>1.057935846781879</v>
       </c>
       <c r="M14">
-        <v>1.028949604297933</v>
+        <v>1.063387556042808</v>
       </c>
       <c r="N14">
-        <v>1.019312318874614</v>
+        <v>1.049546958258445</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9885550799478574</v>
+        <v>1.041644116104377</v>
       </c>
       <c r="D15">
-        <v>1.012398928480438</v>
+        <v>1.046706939095494</v>
       </c>
       <c r="E15">
-        <v>1.008384059423598</v>
+        <v>1.054540795095801</v>
       </c>
       <c r="F15">
-        <v>1.014816649605183</v>
+        <v>1.060011609284199</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041343518195145</v>
+        <v>1.036391732626983</v>
       </c>
       <c r="J15">
-        <v>1.018257832331789</v>
+        <v>1.048135486706899</v>
       </c>
       <c r="K15">
-        <v>1.027020096609558</v>
+        <v>1.050219205329037</v>
       </c>
       <c r="L15">
-        <v>1.023078519048396</v>
+        <v>1.058025037648417</v>
       </c>
       <c r="M15">
-        <v>1.029394045889992</v>
+        <v>1.063476552077059</v>
       </c>
       <c r="N15">
-        <v>1.019703875249506</v>
+        <v>1.049623959320844</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9920562763891576</v>
+        <v>1.042309405228028</v>
       </c>
       <c r="D16">
-        <v>1.014967846320702</v>
+        <v>1.047210019078521</v>
       </c>
       <c r="E16">
-        <v>1.011509442674934</v>
+        <v>1.055173675965118</v>
       </c>
       <c r="F16">
-        <v>1.017938951087811</v>
+        <v>1.0606426459592</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042166566621503</v>
+        <v>1.036503130318714</v>
       </c>
       <c r="J16">
-        <v>1.020510842489495</v>
+        <v>1.048582976505261</v>
       </c>
       <c r="K16">
-        <v>1.029036110214441</v>
+        <v>1.050608050662039</v>
       </c>
       <c r="L16">
-        <v>1.025637877463396</v>
+        <v>1.058544220823113</v>
       </c>
       <c r="M16">
-        <v>1.031955944434987</v>
+        <v>1.063994577335027</v>
       </c>
       <c r="N16">
-        <v>1.021960084940059</v>
+        <v>1.050072084606047</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9942225016374834</v>
+        <v>1.042726862484902</v>
       </c>
       <c r="D17">
-        <v>1.016558801547991</v>
+        <v>1.047525643854325</v>
       </c>
       <c r="E17">
-        <v>1.013445612904722</v>
+        <v>1.055570913018491</v>
       </c>
       <c r="F17">
-        <v>1.019873206204291</v>
+        <v>1.061038705757654</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042672618218757</v>
+        <v>1.036572578977738</v>
       </c>
       <c r="J17">
-        <v>1.021904525472946</v>
+        <v>1.048863627089626</v>
       </c>
       <c r="K17">
-        <v>1.030282593318077</v>
+        <v>1.050851803100185</v>
       </c>
       <c r="L17">
-        <v>1.027221928595573</v>
+        <v>1.058869937720695</v>
       </c>
       <c r="M17">
-        <v>1.0335415332373</v>
+        <v>1.064319546790636</v>
       </c>
       <c r="N17">
-        <v>1.023355747113204</v>
+        <v>1.050353133746433</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.995475542639377</v>
+        <v>1.042970408335057</v>
       </c>
       <c r="D18">
-        <v>1.017479602951326</v>
+        <v>1.047709762375677</v>
       </c>
       <c r="E18">
-        <v>1.014566443622562</v>
+        <v>1.055802703734494</v>
       </c>
       <c r="F18">
-        <v>1.020992923078126</v>
+        <v>1.061269802411129</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042964177697217</v>
+        <v>1.036612932803998</v>
       </c>
       <c r="J18">
-        <v>1.022710574994282</v>
+        <v>1.049027308432386</v>
       </c>
       <c r="K18">
-        <v>1.031003285933787</v>
+        <v>1.050993921961418</v>
       </c>
       <c r="L18">
-        <v>1.028138390622431</v>
+        <v>1.059059939674392</v>
       </c>
       <c r="M18">
-        <v>1.034458869798587</v>
+        <v>1.064509105144583</v>
       </c>
       <c r="N18">
-        <v>1.024162941317316</v>
+        <v>1.050517047535474</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9959010490974004</v>
+        <v>1.043053459674494</v>
       </c>
       <c r="D19">
-        <v>1.017792373407376</v>
+        <v>1.047772545390178</v>
       </c>
       <c r="E19">
-        <v>1.014947198616681</v>
+        <v>1.055881753469321</v>
       </c>
       <c r="F19">
-        <v>1.021373298526364</v>
+        <v>1.061348614232962</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043062986018994</v>
+        <v>1.036626666217732</v>
       </c>
       <c r="J19">
-        <v>1.022984270625941</v>
+        <v>1.049083116578872</v>
       </c>
       <c r="K19">
-        <v>1.031247960016582</v>
+        <v>1.051042370999144</v>
       </c>
       <c r="L19">
-        <v>1.028449629835789</v>
+        <v>1.059124728266214</v>
       </c>
       <c r="M19">
-        <v>1.034770403203924</v>
+        <v>1.064573741184249</v>
       </c>
       <c r="N19">
-        <v>1.024437025628166</v>
+        <v>1.05057293493593</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9939911774467107</v>
+        <v>1.042682068090643</v>
       </c>
       <c r="D20">
-        <v>1.016388853686457</v>
+        <v>1.047491778235843</v>
       </c>
       <c r="E20">
-        <v>1.013238765400534</v>
+        <v>1.05552828402593</v>
       </c>
       <c r="F20">
-        <v>1.019666563770088</v>
+        <v>1.060996203837232</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042618698871173</v>
+        <v>1.036565143762196</v>
       </c>
       <c r="J20">
-        <v>1.021755710466638</v>
+        <v>1.048833517734517</v>
       </c>
       <c r="K20">
-        <v>1.030149518972268</v>
+        <v>1.050825656746475</v>
       </c>
       <c r="L20">
-        <v>1.027052754108333</v>
+        <v>1.058834989639347</v>
       </c>
       <c r="M20">
-        <v>1.03337219603558</v>
+        <v>1.064284679691416</v>
       </c>
       <c r="N20">
-        <v>1.023206720772519</v>
+        <v>1.050322981632586</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9876565282527447</v>
+        <v>1.041475226829687</v>
       </c>
       <c r="D21">
-        <v>1.011740147081379</v>
+        <v>1.046579213059159</v>
       </c>
       <c r="E21">
-        <v>1.007582747598777</v>
+        <v>1.054380168665715</v>
       </c>
       <c r="F21">
-        <v>1.014016128646966</v>
+        <v>1.059851444853275</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041131313056235</v>
+        <v>1.036363314258665</v>
       </c>
       <c r="J21">
-        <v>1.017679546332653</v>
+        <v>1.048021844131362</v>
       </c>
       <c r="K21">
-        <v>1.026502460860668</v>
+        <v>1.050120419418851</v>
       </c>
       <c r="L21">
-        <v>1.02242187257652</v>
+        <v>1.057893219786315</v>
       </c>
       <c r="M21">
-        <v>1.028736739201252</v>
+        <v>1.063345021744119</v>
       </c>
       <c r="N21">
-        <v>1.019124768017921</v>
+        <v>1.049510155359815</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9835721269024315</v>
+        <v>1.040716888855797</v>
       </c>
       <c r="D22">
-        <v>1.008748336981147</v>
+        <v>1.046005632005117</v>
       </c>
       <c r="E22">
-        <v>1.003944408221556</v>
+        <v>1.053659108978214</v>
       </c>
       <c r="F22">
-        <v>1.010381400991746</v>
+        <v>1.059132429375218</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040161988577522</v>
+        <v>1.036235027082854</v>
       </c>
       <c r="J22">
-        <v>1.01505068140579</v>
+        <v>1.047511358514557</v>
       </c>
       <c r="K22">
-        <v>1.024148457169931</v>
+        <v>1.049676491375322</v>
       </c>
       <c r="L22">
-        <v>1.019438128510364</v>
+        <v>1.057301246105808</v>
       </c>
       <c r="M22">
-        <v>1.025749967963894</v>
+        <v>1.062754307623105</v>
       </c>
       <c r="N22">
-        <v>1.016492169801327</v>
+        <v>1.048998944794879</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9857473338697902</v>
+        <v>1.04111885542434</v>
       </c>
       <c r="D23">
-        <v>1.01034111081809</v>
+        <v>1.046309680389463</v>
       </c>
       <c r="E23">
-        <v>1.005881232100899</v>
+        <v>1.054041279784355</v>
       </c>
       <c r="F23">
-        <v>1.012316296842245</v>
+        <v>1.059513522746656</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040679163994811</v>
+        <v>1.036303166099734</v>
       </c>
       <c r="J23">
-        <v>1.016450763271228</v>
+        <v>1.04778199109406</v>
       </c>
       <c r="K23">
-        <v>1.02540232228525</v>
+        <v>1.049911874899882</v>
       </c>
       <c r="L23">
-        <v>1.021026940942388</v>
+        <v>1.057615047769193</v>
       </c>
       <c r="M23">
-        <v>1.027340396792349</v>
+        <v>1.063067448020285</v>
       </c>
       <c r="N23">
-        <v>1.017894239943605</v>
+        <v>1.049269961703688</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9940957352075078</v>
+        <v>1.042702308594329</v>
       </c>
       <c r="D24">
-        <v>1.016465667940097</v>
+        <v>1.047507080589547</v>
       </c>
       <c r="E24">
-        <v>1.013332257107758</v>
+        <v>1.055547545957498</v>
       </c>
       <c r="F24">
-        <v>1.019759962805879</v>
+        <v>1.061015408373214</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042643073848238</v>
+        <v>1.036568503893131</v>
       </c>
       <c r="J24">
-        <v>1.021822974724559</v>
+        <v>1.048847122909752</v>
       </c>
       <c r="K24">
-        <v>1.030209669156705</v>
+        <v>1.050837471336873</v>
       </c>
       <c r="L24">
-        <v>1.027129219869057</v>
+        <v>1.058850781121043</v>
       </c>
       <c r="M24">
-        <v>1.033448735389633</v>
+        <v>1.064300434604357</v>
       </c>
       <c r="N24">
-        <v>1.023274080553401</v>
+        <v>1.05033660612873</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.003375405641059</v>
+        <v>1.044541783072143</v>
       </c>
       <c r="D25">
-        <v>1.02329321682585</v>
+        <v>1.048897375800259</v>
       </c>
       <c r="E25">
-        <v>1.021647484799454</v>
+        <v>1.057298975822559</v>
       </c>
       <c r="F25">
-        <v>1.028066748152372</v>
+        <v>1.062761464715503</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044781072813433</v>
+        <v>1.036870355671472</v>
       </c>
       <c r="J25">
-        <v>1.027789705450698</v>
+        <v>1.0500824653622</v>
       </c>
       <c r="K25">
-        <v>1.035540385049794</v>
+        <v>1.051909304753343</v>
       </c>
       <c r="L25">
-        <v>1.033918795042578</v>
+        <v>1.060285438176797</v>
       </c>
       <c r="M25">
-        <v>1.040244445403401</v>
+        <v>1.065731604660006</v>
       </c>
       <c r="N25">
-        <v>1.029249284721565</v>
+        <v>1.051573702909157</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_231/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_231/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.046010529502491</v>
+        <v>1.010481254367425</v>
       </c>
       <c r="D2">
-        <v>1.050006871171725</v>
+        <v>1.028533870028352</v>
       </c>
       <c r="E2">
-        <v>1.058698708362374</v>
+        <v>1.028038838748239</v>
       </c>
       <c r="F2">
-        <v>1.064156674700211</v>
+        <v>1.034451115555758</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037106215224382</v>
+        <v>1.046380209619781</v>
       </c>
       <c r="J2">
-        <v>1.051067206422133</v>
+        <v>1.032352929296692</v>
       </c>
       <c r="K2">
-        <v>1.052762347095428</v>
+        <v>1.039609495727074</v>
       </c>
       <c r="L2">
-        <v>1.061430230530892</v>
+        <v>1.039120894003055</v>
       </c>
       <c r="M2">
-        <v>1.066873371794892</v>
+        <v>1.045450482458004</v>
       </c>
       <c r="N2">
-        <v>1.052559842414346</v>
+        <v>1.033818988868838</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.047077892408904</v>
+        <v>1.015484245736305</v>
       </c>
       <c r="D3">
-        <v>1.050812797914315</v>
+        <v>1.032229359835403</v>
       </c>
       <c r="E3">
-        <v>1.059716652479945</v>
+        <v>1.032551599296078</v>
       </c>
       <c r="F3">
-        <v>1.065171196435683</v>
+        <v>1.038958513629197</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.03727462464952</v>
+        <v>1.047483157458114</v>
       </c>
       <c r="J3">
-        <v>1.051781882566756</v>
+        <v>1.035561514035072</v>
       </c>
       <c r="K3">
-        <v>1.053380650500119</v>
+        <v>1.042465821189568</v>
       </c>
       <c r="L3">
-        <v>1.062261742371102</v>
+        <v>1.042784251942627</v>
       </c>
       <c r="M3">
-        <v>1.067702544301359</v>
+        <v>1.049116046299034</v>
       </c>
       <c r="N3">
-        <v>1.05327553348107</v>
+        <v>1.037032130165568</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.047768975451466</v>
+        <v>1.018653609664272</v>
       </c>
       <c r="D4">
-        <v>1.051334436940152</v>
+        <v>1.034572613839832</v>
       </c>
       <c r="E4">
-        <v>1.060376074711297</v>
+        <v>1.03541601440067</v>
       </c>
       <c r="F4">
-        <v>1.06582833956648</v>
+        <v>1.041819282845728</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.037382278197022</v>
+        <v>1.048170941910035</v>
       </c>
       <c r="J4">
-        <v>1.052244169760625</v>
+        <v>1.037591897843835</v>
       </c>
       <c r="K4">
-        <v>1.053780231084122</v>
+        <v>1.044270942867583</v>
       </c>
       <c r="L4">
-        <v>1.062799918534404</v>
+        <v>1.045104993767593</v>
       </c>
       <c r="M4">
-        <v>1.068239140285755</v>
+        <v>1.051437883878767</v>
       </c>
       <c r="N4">
-        <v>1.053738477175778</v>
+        <v>1.039065397352227</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.048059609014307</v>
+        <v>1.019970379726979</v>
       </c>
       <c r="D5">
-        <v>1.051553769133651</v>
+        <v>1.035546619976907</v>
       </c>
       <c r="E5">
-        <v>1.060653473327515</v>
+        <v>1.036607388581908</v>
       </c>
       <c r="F5">
-        <v>1.06610476451776</v>
+        <v>1.043009076385651</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.037427219709483</v>
+        <v>1.048454028255436</v>
       </c>
       <c r="J5">
-        <v>1.05243847743527</v>
+        <v>1.038434881975195</v>
       </c>
       <c r="K5">
-        <v>1.053948093702892</v>
+        <v>1.045019819507461</v>
       </c>
       <c r="L5">
-        <v>1.063026198900481</v>
+        <v>1.046069150592794</v>
       </c>
       <c r="M5">
-        <v>1.068464740367983</v>
+        <v>1.052402417952692</v>
       </c>
       <c r="N5">
-        <v>1.053933060789609</v>
+        <v>1.039909578617746</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.048108413659314</v>
+        <v>1.020190572220908</v>
       </c>
       <c r="D6">
-        <v>1.0515905980092</v>
+        <v>1.035709520007331</v>
       </c>
       <c r="E6">
-        <v>1.060700060165327</v>
+        <v>1.036806687350792</v>
       </c>
       <c r="F6">
-        <v>1.066151186960212</v>
+        <v>1.043208106787789</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.037434747044046</v>
+        <v>1.048501208410642</v>
       </c>
       <c r="J6">
-        <v>1.052471100314113</v>
+        <v>1.038575812211127</v>
       </c>
       <c r="K6">
-        <v>1.053976271458149</v>
+        <v>1.045144982111105</v>
       </c>
       <c r="L6">
-        <v>1.063064194176657</v>
+        <v>1.046230375038333</v>
       </c>
       <c r="M6">
-        <v>1.0685026204828</v>
+        <v>1.052563700737198</v>
       </c>
       <c r="N6">
-        <v>1.053965729996682</v>
+        <v>1.040050708990778</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.047772858509792</v>
+        <v>1.018671265022762</v>
       </c>
       <c r="D7">
-        <v>1.051337367530672</v>
+        <v>1.034585671665383</v>
       </c>
       <c r="E7">
-        <v>1.06037978062854</v>
+        <v>1.035431983360738</v>
       </c>
       <c r="F7">
-        <v>1.065832032534677</v>
+        <v>1.04183523088075</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.037382879949977</v>
+        <v>1.048174748146187</v>
       </c>
       <c r="J7">
-        <v>1.052246766258679</v>
+        <v>1.037603202969043</v>
       </c>
       <c r="K7">
-        <v>1.053782474549111</v>
+        <v>1.044280988255545</v>
       </c>
       <c r="L7">
-        <v>1.062802941982239</v>
+        <v>1.045117921465688</v>
       </c>
       <c r="M7">
-        <v>1.06824215470646</v>
+        <v>1.05145081695048</v>
       </c>
       <c r="N7">
-        <v>1.053741077361157</v>
+        <v>1.03907671853201</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.0463711610907</v>
+        <v>1.012186487070981</v>
       </c>
       <c r="D8">
-        <v>1.050279206183547</v>
+        <v>1.029792951381662</v>
       </c>
       <c r="E8">
-        <v>1.0590425728165</v>
+        <v>1.029575774839642</v>
       </c>
       <c r="F8">
-        <v>1.064499395877375</v>
+        <v>1.035986272215479</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037163402788369</v>
+        <v>1.046758405708224</v>
       </c>
       <c r="J8">
-        <v>1.051308766583491</v>
+        <v>1.033446995831811</v>
       </c>
       <c r="K8">
-        <v>1.052971409413098</v>
+        <v>1.04058393182044</v>
       </c>
       <c r="L8">
-        <v>1.061711216080727</v>
+        <v>1.040369489191071</v>
       </c>
       <c r="M8">
-        <v>1.067153580482063</v>
+        <v>1.046699889294799</v>
       </c>
       <c r="N8">
-        <v>1.052801745618841</v>
+        <v>1.034914609103919</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.043904475858023</v>
+        <v>1.000209443443606</v>
       </c>
       <c r="D9">
-        <v>1.04841578271728</v>
+        <v>1.020961657051145</v>
       </c>
       <c r="E9">
-        <v>1.056691972271872</v>
+        <v>1.018806611496805</v>
       </c>
       <c r="F9">
-        <v>1.062156358608988</v>
+        <v>1.025228817340682</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036766572862163</v>
+        <v>1.044057522684705</v>
       </c>
       <c r="J9">
-        <v>1.049654717975492</v>
+        <v>1.025754807890071</v>
       </c>
       <c r="K9">
-        <v>1.051538383538415</v>
+        <v>1.033723560137264</v>
       </c>
       <c r="L9">
-        <v>1.059788495443386</v>
+        <v>1.031601759462489</v>
       </c>
       <c r="M9">
-        <v>1.065235907166782</v>
+        <v>1.037925418656191</v>
       </c>
       <c r="N9">
-        <v>1.051145348072096</v>
+        <v>1.027211497372996</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.042262235318244</v>
+        <v>0.9918100307898128</v>
       </c>
       <c r="D10">
-        <v>1.047174353156404</v>
+        <v>1.014787068058792</v>
       </c>
       <c r="E10">
-        <v>1.055128796418796</v>
+        <v>1.011289468050776</v>
       </c>
       <c r="F10">
-        <v>1.060597898455817</v>
+        <v>1.017719193556834</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036495261067356</v>
+        <v>1.042108884004269</v>
       </c>
       <c r="J10">
-        <v>1.048551257943479</v>
+        <v>1.020352400796374</v>
       </c>
       <c r="K10">
-        <v>1.050580496480448</v>
+        <v>1.028894373234726</v>
       </c>
       <c r="L10">
-        <v>1.058507413962719</v>
+        <v>1.025457836117859</v>
       </c>
       <c r="M10">
-        <v>1.063957853911985</v>
+        <v>1.031775726454978</v>
       </c>
       <c r="N10">
-        <v>1.050040321000268</v>
+        <v>1.021801418241561</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.041551653499132</v>
+        <v>0.9880636396763965</v>
       </c>
       <c r="D11">
-        <v>1.0466370130592</v>
+        <v>1.012038598385869</v>
       </c>
       <c r="E11">
-        <v>1.054452854403592</v>
+        <v>1.007945762122421</v>
       </c>
       <c r="F11">
-        <v>1.059923921831505</v>
+        <v>1.014378784770775</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036376181219839</v>
+        <v>1.041227505988862</v>
       </c>
       <c r="J11">
-        <v>1.04807327243659</v>
+        <v>1.017941556341368</v>
       </c>
       <c r="K11">
-        <v>1.050165126237377</v>
+        <v>1.026737000199632</v>
       </c>
       <c r="L11">
-        <v>1.05795287163773</v>
+        <v>1.022719372707213</v>
       </c>
       <c r="M11">
-        <v>1.063404543800614</v>
+        <v>1.029034538802111</v>
       </c>
       <c r="N11">
-        <v>1.049561656699134</v>
+        <v>1.019387150110902</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.041287789731161</v>
+        <v>0.9866546079826339</v>
       </c>
       <c r="D12">
-        <v>1.046437452912384</v>
+        <v>1.011005830377503</v>
       </c>
       <c r="E12">
-        <v>1.054201918707939</v>
+        <v>1.006689633397416</v>
       </c>
       <c r="F12">
-        <v>1.059673704742557</v>
+        <v>1.013123897297403</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036331709569444</v>
+        <v>1.040894243114982</v>
       </c>
       <c r="J12">
-        <v>1.047895700652487</v>
+        <v>1.017034708071539</v>
       </c>
       <c r="K12">
-        <v>1.050010749773371</v>
+        <v>1.025925170553884</v>
       </c>
       <c r="L12">
-        <v>1.057746916576181</v>
+        <v>1.021689783102433</v>
       </c>
       <c r="M12">
-        <v>1.063199034631009</v>
+        <v>1.028003910559717</v>
       </c>
       <c r="N12">
-        <v>1.049383832742731</v>
+        <v>1.018479014012512</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.04134438587793</v>
+        <v>0.9869576572187224</v>
       </c>
       <c r="D13">
-        <v>1.046480257785726</v>
+        <v>1.011227909978725</v>
       </c>
       <c r="E13">
-        <v>1.05425573895594</v>
+        <v>1.006959730018691</v>
       </c>
       <c r="F13">
-        <v>1.059727371362921</v>
+        <v>1.013393726739034</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036341259749359</v>
+        <v>1.040965999096198</v>
       </c>
       <c r="J13">
-        <v>1.047933791604641</v>
+        <v>1.017229754023411</v>
       </c>
       <c r="K13">
-        <v>1.050043868089134</v>
+        <v>1.026099794097308</v>
       </c>
       <c r="L13">
-        <v>1.057791093422916</v>
+        <v>1.021911206086644</v>
       </c>
       <c r="M13">
-        <v>1.063243116365644</v>
+        <v>1.028225557419989</v>
       </c>
       <c r="N13">
-        <v>1.049421977788406</v>
+        <v>1.018674336952007</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.041529840847652</v>
+        <v>0.987947530943634</v>
       </c>
       <c r="D14">
-        <v>1.046620516700167</v>
+        <v>1.011953475238776</v>
       </c>
       <c r="E14">
-        <v>1.054432109136682</v>
+        <v>1.007842223143572</v>
       </c>
       <c r="F14">
-        <v>1.059903236197541</v>
+        <v>1.014275347992871</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03637251007545</v>
+        <v>1.041200079715478</v>
       </c>
       <c r="J14">
-        <v>1.048058594839771</v>
+        <v>1.017866831223319</v>
       </c>
       <c r="K14">
-        <v>1.050152367252762</v>
+        <v>1.02667011117357</v>
       </c>
       <c r="L14">
-        <v>1.057935846781879</v>
+        <v>1.022634523556508</v>
       </c>
       <c r="M14">
-        <v>1.063387556042808</v>
+        <v>1.028949604297933</v>
       </c>
       <c r="N14">
-        <v>1.049546958258445</v>
+        <v>1.019312318874614</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.041644116104377</v>
+        <v>0.9885550799478581</v>
       </c>
       <c r="D15">
-        <v>1.046706939095494</v>
+        <v>1.012398928480438</v>
       </c>
       <c r="E15">
-        <v>1.054540795095801</v>
+        <v>1.008384059423599</v>
       </c>
       <c r="F15">
-        <v>1.060011609284199</v>
+        <v>1.014816649605183</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036391732626983</v>
+        <v>1.041343518195146</v>
       </c>
       <c r="J15">
-        <v>1.048135486706899</v>
+        <v>1.01825783233179</v>
       </c>
       <c r="K15">
-        <v>1.050219205329037</v>
+        <v>1.027020096609558</v>
       </c>
       <c r="L15">
-        <v>1.058025037648417</v>
+        <v>1.023078519048396</v>
       </c>
       <c r="M15">
-        <v>1.063476552077059</v>
+        <v>1.029394045889993</v>
       </c>
       <c r="N15">
-        <v>1.049623959320844</v>
+        <v>1.019703875249506</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.042309405228028</v>
+        <v>0.9920562763891579</v>
       </c>
       <c r="D16">
-        <v>1.047210019078521</v>
+        <v>1.014967846320702</v>
       </c>
       <c r="E16">
-        <v>1.055173675965118</v>
+        <v>1.011509442674934</v>
       </c>
       <c r="F16">
-        <v>1.0606426459592</v>
+        <v>1.017938951087812</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036503130318714</v>
+        <v>1.042166566621504</v>
       </c>
       <c r="J16">
-        <v>1.048582976505261</v>
+        <v>1.020510842489495</v>
       </c>
       <c r="K16">
-        <v>1.050608050662039</v>
+        <v>1.029036110214441</v>
       </c>
       <c r="L16">
-        <v>1.058544220823113</v>
+        <v>1.025637877463397</v>
       </c>
       <c r="M16">
-        <v>1.063994577335027</v>
+        <v>1.031955944434987</v>
       </c>
       <c r="N16">
-        <v>1.050072084606047</v>
+        <v>1.02196008494006</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.042726862484902</v>
+        <v>0.9942225016374822</v>
       </c>
       <c r="D17">
-        <v>1.047525643854325</v>
+        <v>1.01655880154799</v>
       </c>
       <c r="E17">
-        <v>1.055570913018491</v>
+        <v>1.013445612904721</v>
       </c>
       <c r="F17">
-        <v>1.061038705757654</v>
+        <v>1.01987320620429</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036572578977738</v>
+        <v>1.042672618218757</v>
       </c>
       <c r="J17">
-        <v>1.048863627089626</v>
+        <v>1.021904525472945</v>
       </c>
       <c r="K17">
-        <v>1.050851803100185</v>
+        <v>1.030282593318076</v>
       </c>
       <c r="L17">
-        <v>1.058869937720695</v>
+        <v>1.027221928595572</v>
       </c>
       <c r="M17">
-        <v>1.064319546790636</v>
+        <v>1.033541533237299</v>
       </c>
       <c r="N17">
-        <v>1.050353133746433</v>
+        <v>1.023355747113203</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.042970408335057</v>
+        <v>0.9954755426393773</v>
       </c>
       <c r="D18">
-        <v>1.047709762375677</v>
+        <v>1.017479602951327</v>
       </c>
       <c r="E18">
-        <v>1.055802703734494</v>
+        <v>1.014566443622562</v>
       </c>
       <c r="F18">
-        <v>1.061269802411129</v>
+        <v>1.020992923078126</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036612932803998</v>
+        <v>1.042964177697218</v>
       </c>
       <c r="J18">
-        <v>1.049027308432386</v>
+        <v>1.022710574994282</v>
       </c>
       <c r="K18">
-        <v>1.050993921961418</v>
+        <v>1.031003285933787</v>
       </c>
       <c r="L18">
-        <v>1.059059939674392</v>
+        <v>1.028138390622431</v>
       </c>
       <c r="M18">
-        <v>1.064509105144583</v>
+        <v>1.034458869798587</v>
       </c>
       <c r="N18">
-        <v>1.050517047535474</v>
+        <v>1.024162941317316</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.043053459674494</v>
+        <v>0.995901049097401</v>
       </c>
       <c r="D19">
-        <v>1.047772545390178</v>
+        <v>1.017792373407377</v>
       </c>
       <c r="E19">
-        <v>1.055881753469321</v>
+        <v>1.014947198616681</v>
       </c>
       <c r="F19">
-        <v>1.061348614232962</v>
+        <v>1.021373298526365</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036626666217732</v>
+        <v>1.043062986018994</v>
       </c>
       <c r="J19">
-        <v>1.049083116578872</v>
+        <v>1.022984270625942</v>
       </c>
       <c r="K19">
-        <v>1.051042370999144</v>
+        <v>1.031247960016582</v>
       </c>
       <c r="L19">
-        <v>1.059124728266214</v>
+        <v>1.028449629835789</v>
       </c>
       <c r="M19">
-        <v>1.064573741184249</v>
+        <v>1.034770403203924</v>
       </c>
       <c r="N19">
-        <v>1.05057293493593</v>
+        <v>1.024437025628166</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.042682068090643</v>
+        <v>0.9939911774467102</v>
       </c>
       <c r="D20">
-        <v>1.047491778235843</v>
+        <v>1.016388853686457</v>
       </c>
       <c r="E20">
-        <v>1.05552828402593</v>
+        <v>1.013238765400533</v>
       </c>
       <c r="F20">
-        <v>1.060996203837232</v>
+        <v>1.019666563770087</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036565143762196</v>
+        <v>1.042618698871172</v>
       </c>
       <c r="J20">
-        <v>1.048833517734517</v>
+        <v>1.021755710466637</v>
       </c>
       <c r="K20">
-        <v>1.050825656746475</v>
+        <v>1.030149518972267</v>
       </c>
       <c r="L20">
-        <v>1.058834989639347</v>
+        <v>1.027052754108333</v>
       </c>
       <c r="M20">
-        <v>1.064284679691416</v>
+        <v>1.033372196035579</v>
       </c>
       <c r="N20">
-        <v>1.050322981632586</v>
+        <v>1.023206720772518</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.041475226829687</v>
+        <v>0.987656528252746</v>
       </c>
       <c r="D21">
-        <v>1.046579213059159</v>
+        <v>1.01174014708138</v>
       </c>
       <c r="E21">
-        <v>1.054380168665715</v>
+        <v>1.007582747598778</v>
       </c>
       <c r="F21">
-        <v>1.059851444853275</v>
+        <v>1.014016128646967</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036363314258665</v>
+        <v>1.041131313056236</v>
       </c>
       <c r="J21">
-        <v>1.048021844131362</v>
+        <v>1.017679546332654</v>
       </c>
       <c r="K21">
-        <v>1.050120419418851</v>
+        <v>1.02650246086067</v>
       </c>
       <c r="L21">
-        <v>1.057893219786315</v>
+        <v>1.022421872576521</v>
       </c>
       <c r="M21">
-        <v>1.063345021744119</v>
+        <v>1.028736739201253</v>
       </c>
       <c r="N21">
-        <v>1.049510155359815</v>
+        <v>1.019124768017922</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.040716888855797</v>
+        <v>0.9835721269024318</v>
       </c>
       <c r="D22">
-        <v>1.046005632005117</v>
+        <v>1.008748336981147</v>
       </c>
       <c r="E22">
-        <v>1.053659108978214</v>
+        <v>1.003944408221556</v>
       </c>
       <c r="F22">
-        <v>1.059132429375218</v>
+        <v>1.010381400991747</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036235027082854</v>
+        <v>1.040161988577522</v>
       </c>
       <c r="J22">
-        <v>1.047511358514557</v>
+        <v>1.01505068140579</v>
       </c>
       <c r="K22">
-        <v>1.049676491375322</v>
+        <v>1.024148457169931</v>
       </c>
       <c r="L22">
-        <v>1.057301246105808</v>
+        <v>1.019438128510364</v>
       </c>
       <c r="M22">
-        <v>1.062754307623105</v>
+        <v>1.025749967963894</v>
       </c>
       <c r="N22">
-        <v>1.048998944794879</v>
+        <v>1.016492169801327</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.04111885542434</v>
+        <v>0.985747333869791</v>
       </c>
       <c r="D23">
-        <v>1.046309680389463</v>
+        <v>1.010341110818091</v>
       </c>
       <c r="E23">
-        <v>1.054041279784355</v>
+        <v>1.0058812321009</v>
       </c>
       <c r="F23">
-        <v>1.059513522746656</v>
+        <v>1.012316296842246</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036303166099734</v>
+        <v>1.040679163994812</v>
       </c>
       <c r="J23">
-        <v>1.04778199109406</v>
+        <v>1.016450763271229</v>
       </c>
       <c r="K23">
-        <v>1.049911874899882</v>
+        <v>1.025402322285251</v>
       </c>
       <c r="L23">
-        <v>1.057615047769193</v>
+        <v>1.021026940942389</v>
       </c>
       <c r="M23">
-        <v>1.063067448020285</v>
+        <v>1.02734039679235</v>
       </c>
       <c r="N23">
-        <v>1.049269961703688</v>
+        <v>1.017894239943606</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.042702308594329</v>
+        <v>0.9940957352075074</v>
       </c>
       <c r="D24">
-        <v>1.047507080589547</v>
+        <v>1.016465667940097</v>
       </c>
       <c r="E24">
-        <v>1.055547545957498</v>
+        <v>1.013332257107757</v>
       </c>
       <c r="F24">
-        <v>1.061015408373214</v>
+        <v>1.019759962805878</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036568503893131</v>
+        <v>1.042643073848238</v>
       </c>
       <c r="J24">
-        <v>1.048847122909752</v>
+        <v>1.021822974724558</v>
       </c>
       <c r="K24">
-        <v>1.050837471336873</v>
+        <v>1.030209669156705</v>
       </c>
       <c r="L24">
-        <v>1.058850781121043</v>
+        <v>1.027129219869056</v>
       </c>
       <c r="M24">
-        <v>1.064300434604357</v>
+        <v>1.033448735389632</v>
       </c>
       <c r="N24">
-        <v>1.05033660612873</v>
+        <v>1.0232740805534</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.044541783072143</v>
+        <v>1.003375405641059</v>
       </c>
       <c r="D25">
-        <v>1.048897375800259</v>
+        <v>1.023293216825849</v>
       </c>
       <c r="E25">
-        <v>1.057298975822559</v>
+        <v>1.021647484799453</v>
       </c>
       <c r="F25">
-        <v>1.062761464715503</v>
+        <v>1.028066748152372</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036870355671472</v>
+        <v>1.044781072813433</v>
       </c>
       <c r="J25">
-        <v>1.0500824653622</v>
+        <v>1.027789705450698</v>
       </c>
       <c r="K25">
-        <v>1.051909304753343</v>
+        <v>1.035540385049794</v>
       </c>
       <c r="L25">
-        <v>1.060285438176797</v>
+        <v>1.033918795042577</v>
       </c>
       <c r="M25">
-        <v>1.065731604660006</v>
+        <v>1.040244445403401</v>
       </c>
       <c r="N25">
-        <v>1.051573702909157</v>
+        <v>1.029249284721565</v>
       </c>
     </row>
   </sheetData>
